--- a/3_output/reactome_all.xlsx
+++ b/3_output/reactome_all.xlsx
@@ -30284,13 +30284,13 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.006346741761325742</v>
+        <v>0.006346741761325748</v>
       </c>
       <c r="F63">
-        <v>0.06807392373034869</v>
+        <v>0.06807392373034875</v>
       </c>
       <c r="G63">
-        <v>0.05754091851524528</v>
+        <v>0.05754091851524533</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>

--- a/3_output/reactome_all.xlsx
+++ b/3_output/reactome_all.xlsx
@@ -30284,13 +30284,13 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.006346741761325748</v>
+        <v>0.006346741761325742</v>
       </c>
       <c r="F63">
-        <v>0.06807392373034875</v>
+        <v>0.06807392373034869</v>
       </c>
       <c r="G63">
-        <v>0.05754091851524533</v>
+        <v>0.05754091851524528</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
